--- a/Cancer.xlsx
+++ b/Cancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\OneDrive\Documents\Machine Learning\Hospital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E007EDD-94E4-4533-90E5-3092A18378EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E1F964-175A-4325-BD5B-F2AB225867E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Nice doctor but a bit harsh</t>
+  </si>
+  <si>
+    <t>fees</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -523,11 +526,11 @@
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,10 +544,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -557,11 +563,14 @@
       <c r="D2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1400</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -574,11 +583,14 @@
       <c r="D3">
         <v>4.7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>1400</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -591,11 +603,14 @@
       <c r="D4">
         <v>4.3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>1400</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -608,11 +623,14 @@
       <c r="D5">
         <v>4.2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>1400</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -625,11 +643,14 @@
       <c r="D6">
         <v>4.5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>1400</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -642,11 +663,14 @@
       <c r="D7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>700</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -659,11 +683,14 @@
       <c r="D8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -676,11 +703,14 @@
       <c r="D9">
         <v>4.8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -693,11 +723,14 @@
       <c r="D10">
         <v>4.7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -710,11 +743,14 @@
       <c r="D11">
         <v>4.8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>600</v>
+      </c>
+      <c r="F11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -727,11 +763,14 @@
       <c r="D12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -744,11 +783,14 @@
       <c r="D13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -761,11 +803,14 @@
       <c r="D14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -778,11 +823,14 @@
       <c r="D15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>700</v>
+      </c>
+      <c r="F15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -795,11 +843,14 @@
       <c r="D16">
         <v>4.3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -812,11 +863,14 @@
       <c r="D17">
         <v>4.2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -829,7 +883,10 @@
       <c r="D18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18" t="s">
         <v>52</v>
       </c>
     </row>
